--- a/biology/Médecine/Tatiana_Borissovna_Dmitrieva/Tatiana_Borissovna_Dmitrieva.xlsx
+++ b/biology/Médecine/Tatiana_Borissovna_Dmitrieva/Tatiana_Borissovna_Dmitrieva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tatiana Borissovna Dmitrieva (en russe : Татьяна Борисовна Дмитриева), née le 21 décembre 1951 à Ivanovo et morte le 1er mars 2010 à Moscou est une psychiatre et femme politique russe. Elle exerce la fonction de Ministre de la Santé de 1996 à 1998 et est députée de la Douma. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est membre de l'Académie russe des sciences médicales et ministre de la Santé d'août 1996 à mai 1998. Elle dirige ensuite le Centre de recherche d'état Serbski (en) pour la psychiatrie sociale et médico-légale à Moscou[1],[2]. Ce centre, responsable de la psychiatrie médico-légale pour les tribunaux pénaux, est connu pour avoir été un des outils de la psychiatrie punitive du temps de l'Union soviétique, de nombreux dissidents y ayant été abusivement internés[2]. Interrogée à ce sujet en 1997, Tatiana Dmitrieva affirme que ce n'aurait été le cas qu'exceptionnellement et que les diagnostics psychiatriques attribués aux dissidents auraient été « presque tous justes »[2].   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est membre de l'Académie russe des sciences médicales et ministre de la Santé d'août 1996 à mai 1998. Elle dirige ensuite le Centre de recherche d'état Serbski (en) pour la psychiatrie sociale et médico-légale à Moscou,. Ce centre, responsable de la psychiatrie médico-légale pour les tribunaux pénaux, est connu pour avoir été un des outils de la psychiatrie punitive du temps de l'Union soviétique, de nombreux dissidents y ayant été abusivement internés. Interrogée à ce sujet en 1997, Tatiana Dmitrieva affirme que ce n'aurait été le cas qu'exceptionnellement et que les diagnostics psychiatriques attribués aux dissidents auraient été « presque tous justes ».   
 Tatiana Borissovna Dmitrieva est également chef du département de psychiatrie sociale et médico-légale à l'Académie de médecine Sechenov de Moscou et vice-présidente de la Société russe des psychiatres et narcologues. 
 Elle meurt le 1er mars 2010 et est inhumée au cimetière Troïekourovskoïe.
 </t>
